--- a/biology/Histoire de la zoologie et de la botanique/Charles_Lienhard/Charles_Lienhard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Lienhard/Charles_Lienhard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Lienhard, né en 1949 à Zurich, est un entomologiste suisse spécialiste des psoques.
-Il travaille à l'Institut d'entomologie de l'École polytechnique fédérale de Zurich de 1971 à 1980, y obtenant son doctorat en 1976, puis travaille au Muséum d'histoire naturelle de Genève de 1981 jusqu'à sa retraite début 2009, devenant alors conservateur honoraire[1],[2]. En 2017, il reçoit le prix Ig-Nobel de biologie pour avoir montré[3] l'existence d'un pénis chez le représentant femelle et d'un vagin chez le représentant mâle des insectes du genre Neotrogla[4].
+Il travaille à l'Institut d'entomologie de l'École polytechnique fédérale de Zurich de 1971 à 1980, y obtenant son doctorat en 1976, puis travaille au Muséum d'histoire naturelle de Genève de 1981 jusqu'à sa retraite début 2009, devenant alors conservateur honoraire,. En 2017, il reçoit le prix Ig-Nobel de biologie pour avoir montré l'existence d'un pénis chez le représentant femelle et d'un vagin chez le représentant mâle des insectes du genre Neotrogla.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une sous-tribu de psoques, Lienhardiellina Mockford, 1999 et le genre Lienhardiella Mockford, 1999 lui sont dédiés[5], ainsi que de nombreuses espèces d'arthropodes, dont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une sous-tribu de psoques, Lienhardiellina Mockford, 1999 et le genre Lienhardiella Mockford, 1999 lui sont dédiés, ainsi que de nombreuses espèces d'arthropodes, dont :
 Acrotocepheus lienhardi Mahunka, 1989
 Apocheiridium lienhardi  Mahnert, 2011
 Burmjapyx lienhardi Pagés, 2000
-Buthus lienhardi Lourenço, 2003[6]
+Buthus lienhardi Lourenço, 2003
 Coronibatula lienhardi Mahunka, 1988
-Eukoenenia lienhardi Condé, 1989[7]
+Eukoenenia lienhardi Condé, 1989
 Inmalthodes lienhardi Wittmer, 1992
 Notophthiracarus lienhardi Mahunka, 1996
 Papillacarus lienhardi Mahunka, 1997
@@ -528,7 +542,7 @@
 Pseudotocepheus lienhardi Mahunka, 1993
 Ptiloppia lienhardi Mahunka, 2001
 Sabahtritia lienhardi Mahunka, 1995
-Scaphisoma lienhardi Löbl &amp; Ogawa, 2016[8]
+Scaphisoma lienhardi Löbl &amp; Ogawa, 2016
 Suctobelbella lienhardi Mahunka, 1983
 Trioza lienhardi Burckhardt, 1981
 Zetomotrichus lienhardi Mahunka, 1989
